--- a/python-in-excel-dynamic-dropdown.xlsx
+++ b/python-in-excel-dynamic-dropdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A3DBD-CBD6-491C-B23D-A96652CFF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91ECB1-AA69-4AF7-B7B2-7F3B849DED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{E31A4847-33DD-4586-8FF4-02B882079CDC}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -96,11 +96,11 @@
 quantitative_columns = penguins_df.select_dtypes(include=['number']).columns</code>
     </pythonScript>
     <pythonScript>
-      <code>penguins_df = xl(%P2%, headers=True)
-categorical_columns = penguins_df.select_dtypes(include=['object', 'category']).columns</code>
+      <code>categorical_columns = penguins_df.select_dtypes(include=['object', 'category']).columns</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.scatterplot(data=penguins_df, x=xl(%P2%), y=xl(%P3%), hue=xl(%P4%))</code>
+      <code>sns.scatterplot(data=penguins_df, x=xl(%P2%), y=xl(%P3%), hue=xl(%P4%))
+plt.title(xl(%P5%))</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -232,15 +232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>214311</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>190967</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>702467</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>163435</xdr:rowOff>
+      <xdr:colOff>679588</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,8 +268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7834311" y="1476375"/>
-          <a:ext cx="7870031" cy="5926060"/>
+          <a:off x="7810967" y="1287742"/>
+          <a:ext cx="7886371" cy="6029247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,12 +683,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7890625" customWidth="1"/>
+    <col min="2" max="2" width="7.89453125" customWidth="1"/>
+    <col min="3" max="3" width="13.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -705,7 +707,7 @@
         <v>bill_length_mm</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:C4">_xlfn._xlws.PY(1,0,penguins[#All])</f>
+        <f t="array" ref="C2:C4">_xlfn._xlws.PY(1,0)</f>
         <v>species</v>
       </c>
     </row>
@@ -739,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C3B6E2-BF58-478E-93C6-FF16ED809828}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -780,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -838,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -867,8 +869,8 @@
         <v>21</v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.CONCAT("Relationship between ", J1,J2,J3)</f>
-        <v>Relationship between bill_depth_mmbill_length_mmspecies</v>
+        <f>_xlfn.CONCAT("Relationship between ", J1, " and ", J2, " by ", J3)</f>
+        <v>Relationship between flipper_length_mm and bill_length_mm by island</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -882,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="e" cm="1" vm="1">
-        <f t="array" ref="I5">_xlfn._xlws.PY(2,0,J1,J2,J3)</f>
+        <f t="array" ref="I5">_xlfn._xlws.PY(2,0,J1,J2,J3,J4)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8702,7 +8704,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEEE5A0E-454F-4515-AAB1-6A6176583919}">
           <x14:formula1>
             <xm:f>_xlfn.ANCHORARRAY(setup!C2)</xm:f>
